--- a/chapter3/Chapter3-1a.xlsx
+++ b/chapter3/Chapter3-1a.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Murder</t>
   </si>
@@ -192,24 +192,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -695,9 +677,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1056,15 +1036,13 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1086,21 +1064,6 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1118,21 +1081,6 @@
       <c r="E3">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I3">
-        <v>5.6</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1150,21 +1098,6 @@
       <c r="E4">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>53</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>200</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1182,21 +1115,6 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>9.9</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1214,21 +1132,6 @@
       <c r="E6">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2013,9 +1916,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>